--- a/20140604_emd/강원도/03_시도의원-속초시-속초시제1선거구.xlsx
+++ b/20140604_emd/강원도/03_시도의원-속초시-속초시제1선거구.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="24816"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="615" windowWidth="19440" windowHeight="11535"/>
+    <workbookView xWindow="720" yWindow="620" windowWidth="19440" windowHeight="11540"/>
   </bookViews>
   <sheets>
     <sheet name="도의원선거(속초)" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="31">
   <si>
     <t>선거구명</t>
   </si>
@@ -106,11 +111,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>속초시
-제1선거구</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>잘못 투입·
 구분된 투표지</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -131,22 +131,22 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="#,##0_ "/>
+    <numFmt numFmtId="164" formatCode="#,##0_ "/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -155,7 +155,7 @@
       <b/>
       <sz val="18"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -241,7 +241,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -249,7 +249,7 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -273,6 +273,21 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -293,20 +308,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -597,163 +601,183 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:K1"/>
+      <selection activeCell="L6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="16.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.875" customWidth="1"/>
+    <col min="1" max="1" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.83203125" customWidth="1"/>
     <col min="6" max="6" width="12.5" customWidth="1"/>
-    <col min="7" max="7" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="26.25">
-      <c r="A1" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
+    <row r="1" spans="1:11" ht="23">
+      <c r="A1" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
     </row>
     <row r="3" spans="1:11" ht="26.25" customHeight="1">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="10" t="s">
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="10" t="s">
+      <c r="J3" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="K3" s="11" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="25.5" customHeight="1">
-      <c r="A4" s="14"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="14" t="s">
+      <c r="A4" s="10"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="8"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="12"/>
     </row>
     <row r="5" spans="1:11" ht="12" customHeight="1">
-      <c r="A5" s="14"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
+      <c r="A5" s="10"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
       <c r="F5" s="7" t="s">
         <v>9</v>
       </c>
       <c r="G5" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="H5" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="8"/>
-    </row>
-    <row r="6" spans="1:11" ht="21" customHeight="1">
-      <c r="A6" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="8"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="12"/>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="8"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="13"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="13"/>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="14"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H7" s="9"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="9"/>
+      <c r="A7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="2">
+        <v>27329</v>
+      </c>
+      <c r="E7" s="2">
+        <v>16165</v>
+      </c>
+      <c r="F7" s="2">
+        <v>8917</v>
+      </c>
+      <c r="G7" s="2">
+        <v>6414</v>
+      </c>
+      <c r="H7" s="2">
+        <v>15331</v>
+      </c>
+      <c r="I7" s="2">
+        <v>834</v>
+      </c>
+      <c r="J7" s="2">
+        <v>11164</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="2">
+        <v>163</v>
+      </c>
+      <c r="E8" s="2">
+        <v>152</v>
+      </c>
+      <c r="F8" s="2">
+        <v>91</v>
+      </c>
+      <c r="G8" s="2">
+        <v>56</v>
+      </c>
+      <c r="H8" s="2">
+        <v>147</v>
+      </c>
+      <c r="I8" s="2">
+        <v>5</v>
+      </c>
+      <c r="J8" s="2">
         <v>11</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="2">
-        <v>27329</v>
-      </c>
-      <c r="E8" s="2">
-        <v>16165</v>
-      </c>
-      <c r="F8" s="2">
-        <v>8917</v>
-      </c>
-      <c r="G8" s="2">
-        <v>6414</v>
-      </c>
-      <c r="H8" s="2">
-        <v>15331</v>
-      </c>
-      <c r="I8" s="2">
-        <v>834</v>
-      </c>
-      <c r="J8" s="2">
-        <v>11164</v>
       </c>
       <c r="K8" s="2" t="s">
         <v>3</v>
@@ -764,31 +788,31 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D9" s="2">
-        <v>163</v>
+        <v>1769</v>
       </c>
       <c r="E9" s="2">
-        <v>152</v>
+        <v>1768</v>
       </c>
       <c r="F9" s="2">
-        <v>91</v>
+        <v>866</v>
       </c>
       <c r="G9" s="2">
-        <v>56</v>
+        <v>851</v>
       </c>
       <c r="H9" s="2">
-        <v>147</v>
+        <v>1717</v>
       </c>
       <c r="I9" s="2">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="J9" s="2">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="K9" s="2" t="s">
         <v>3</v>
@@ -799,31 +823,31 @@
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="D10" s="2">
-        <v>1769</v>
+        <v>4340</v>
       </c>
       <c r="E10" s="2">
-        <v>1768</v>
+        <v>2494</v>
       </c>
       <c r="F10" s="2">
-        <v>866</v>
+        <v>1332</v>
       </c>
       <c r="G10" s="2">
-        <v>851</v>
+        <v>1027</v>
       </c>
       <c r="H10" s="2">
-        <v>1717</v>
+        <v>2359</v>
       </c>
       <c r="I10" s="2">
-        <v>51</v>
+        <v>135</v>
       </c>
       <c r="J10" s="2">
-        <v>1</v>
+        <v>1846</v>
       </c>
       <c r="K10" s="2" t="s">
         <v>3</v>
@@ -837,28 +861,28 @@
         <v>16</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="D11" s="2">
-        <v>4340</v>
+        <v>311</v>
       </c>
       <c r="E11" s="2">
-        <v>2494</v>
+        <v>311</v>
       </c>
       <c r="F11" s="2">
-        <v>1332</v>
+        <v>156</v>
       </c>
       <c r="G11" s="2">
-        <v>1027</v>
+        <v>144</v>
       </c>
       <c r="H11" s="2">
-        <v>2359</v>
+        <v>300</v>
       </c>
       <c r="I11" s="2">
-        <v>135</v>
+        <v>11</v>
       </c>
       <c r="J11" s="2">
-        <v>1846</v>
+        <v>0</v>
       </c>
       <c r="K11" s="2" t="s">
         <v>3</v>
@@ -872,28 +896,28 @@
         <v>16</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D12" s="2">
-        <v>311</v>
+        <v>4029</v>
       </c>
       <c r="E12" s="2">
-        <v>311</v>
+        <v>2183</v>
       </c>
       <c r="F12" s="2">
-        <v>156</v>
+        <v>1176</v>
       </c>
       <c r="G12" s="2">
-        <v>144</v>
+        <v>883</v>
       </c>
       <c r="H12" s="2">
-        <v>300</v>
+        <v>2059</v>
       </c>
       <c r="I12" s="2">
-        <v>11</v>
+        <v>124</v>
       </c>
       <c r="J12" s="2">
-        <v>0</v>
+        <v>1846</v>
       </c>
       <c r="K12" s="2" t="s">
         <v>3</v>
@@ -904,31 +928,31 @@
         <v>7</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="D13" s="2">
-        <v>4029</v>
+        <v>3127</v>
       </c>
       <c r="E13" s="2">
-        <v>2183</v>
+        <v>1709</v>
       </c>
       <c r="F13" s="2">
-        <v>1176</v>
+        <v>1005</v>
       </c>
       <c r="G13" s="2">
-        <v>883</v>
+        <v>631</v>
       </c>
       <c r="H13" s="2">
-        <v>2059</v>
+        <v>1636</v>
       </c>
       <c r="I13" s="2">
-        <v>124</v>
+        <v>73</v>
       </c>
       <c r="J13" s="2">
-        <v>1846</v>
+        <v>1418</v>
       </c>
       <c r="K13" s="2" t="s">
         <v>3</v>
@@ -942,28 +966,28 @@
         <v>19</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="D14" s="2">
-        <v>3127</v>
+        <v>177</v>
       </c>
       <c r="E14" s="2">
-        <v>1709</v>
+        <v>177</v>
       </c>
       <c r="F14" s="2">
-        <v>1005</v>
+        <v>99</v>
       </c>
       <c r="G14" s="2">
-        <v>631</v>
+        <v>73</v>
       </c>
       <c r="H14" s="2">
-        <v>1636</v>
+        <v>172</v>
       </c>
       <c r="I14" s="2">
-        <v>73</v>
+        <v>5</v>
       </c>
       <c r="J14" s="2">
-        <v>1418</v>
+        <v>0</v>
       </c>
       <c r="K14" s="2" t="s">
         <v>3</v>
@@ -977,28 +1001,28 @@
         <v>19</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D15" s="2">
-        <v>177</v>
+        <v>2950</v>
       </c>
       <c r="E15" s="2">
-        <v>177</v>
+        <v>1532</v>
       </c>
       <c r="F15" s="2">
-        <v>99</v>
+        <v>906</v>
       </c>
       <c r="G15" s="2">
-        <v>73</v>
+        <v>558</v>
       </c>
       <c r="H15" s="2">
-        <v>172</v>
+        <v>1464</v>
       </c>
       <c r="I15" s="2">
-        <v>5</v>
+        <v>68</v>
       </c>
       <c r="J15" s="2">
-        <v>0</v>
+        <v>1418</v>
       </c>
       <c r="K15" s="2" t="s">
         <v>3</v>
@@ -1009,31 +1033,31 @@
         <v>7</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="D16" s="2">
-        <v>2950</v>
+        <v>5897</v>
       </c>
       <c r="E16" s="2">
-        <v>1532</v>
+        <v>3391</v>
       </c>
       <c r="F16" s="2">
-        <v>906</v>
+        <v>1838</v>
       </c>
       <c r="G16" s="2">
-        <v>558</v>
+        <v>1331</v>
       </c>
       <c r="H16" s="2">
-        <v>1464</v>
+        <v>3169</v>
       </c>
       <c r="I16" s="2">
-        <v>68</v>
+        <v>222</v>
       </c>
       <c r="J16" s="2">
-        <v>1418</v>
+        <v>2506</v>
       </c>
       <c r="K16" s="2" t="s">
         <v>3</v>
@@ -1047,28 +1071,28 @@
         <v>20</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="D17" s="2">
-        <v>5897</v>
+        <v>485</v>
       </c>
       <c r="E17" s="2">
-        <v>3391</v>
+        <v>486</v>
       </c>
       <c r="F17" s="2">
-        <v>1838</v>
+        <v>268</v>
       </c>
       <c r="G17" s="2">
-        <v>1331</v>
+        <v>198</v>
       </c>
       <c r="H17" s="2">
-        <v>3169</v>
+        <v>466</v>
       </c>
       <c r="I17" s="2">
-        <v>222</v>
+        <v>20</v>
       </c>
       <c r="J17" s="2">
-        <v>2506</v>
+        <v>-1</v>
       </c>
       <c r="K17" s="2" t="s">
         <v>3</v>
@@ -1082,28 +1106,28 @@
         <v>20</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D18" s="2">
-        <v>485</v>
+        <v>5412</v>
       </c>
       <c r="E18" s="2">
-        <v>486</v>
+        <v>2905</v>
       </c>
       <c r="F18" s="2">
-        <v>268</v>
+        <v>1570</v>
       </c>
       <c r="G18" s="2">
-        <v>198</v>
+        <v>1133</v>
       </c>
       <c r="H18" s="2">
-        <v>466</v>
+        <v>2703</v>
       </c>
       <c r="I18" s="2">
-        <v>20</v>
+        <v>202</v>
       </c>
       <c r="J18" s="2">
-        <v>-1</v>
+        <v>2507</v>
       </c>
       <c r="K18" s="2" t="s">
         <v>3</v>
@@ -1114,31 +1138,31 @@
         <v>7</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="D19" s="2">
-        <v>5412</v>
+        <v>8513</v>
       </c>
       <c r="E19" s="2">
-        <v>2905</v>
+        <v>4716</v>
       </c>
       <c r="F19" s="2">
-        <v>1570</v>
+        <v>2585</v>
       </c>
       <c r="G19" s="2">
-        <v>1133</v>
+        <v>1972</v>
       </c>
       <c r="H19" s="2">
-        <v>2703</v>
+        <v>4557</v>
       </c>
       <c r="I19" s="2">
-        <v>202</v>
+        <v>159</v>
       </c>
       <c r="J19" s="2">
-        <v>2507</v>
+        <v>3797</v>
       </c>
       <c r="K19" s="2" t="s">
         <v>3</v>
@@ -1152,28 +1176,28 @@
         <v>21</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="D20" s="2">
-        <v>8513</v>
+        <v>658</v>
       </c>
       <c r="E20" s="2">
-        <v>4716</v>
+        <v>658</v>
       </c>
       <c r="F20" s="2">
-        <v>2585</v>
+        <v>349</v>
       </c>
       <c r="G20" s="2">
-        <v>1972</v>
+        <v>285</v>
       </c>
       <c r="H20" s="2">
-        <v>4557</v>
+        <v>634</v>
       </c>
       <c r="I20" s="2">
-        <v>159</v>
+        <v>24</v>
       </c>
       <c r="J20" s="2">
-        <v>3797</v>
+        <v>0</v>
       </c>
       <c r="K20" s="2" t="s">
         <v>3</v>
@@ -1187,28 +1211,28 @@
         <v>21</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D21" s="2">
-        <v>658</v>
+        <v>7855</v>
       </c>
       <c r="E21" s="2">
-        <v>658</v>
+        <v>4058</v>
       </c>
       <c r="F21" s="2">
-        <v>349</v>
+        <v>2236</v>
       </c>
       <c r="G21" s="2">
-        <v>285</v>
+        <v>1687</v>
       </c>
       <c r="H21" s="2">
-        <v>634</v>
+        <v>3923</v>
       </c>
       <c r="I21" s="2">
-        <v>24</v>
+        <v>135</v>
       </c>
       <c r="J21" s="2">
-        <v>0</v>
+        <v>3797</v>
       </c>
       <c r="K21" s="2" t="s">
         <v>3</v>
@@ -1219,31 +1243,31 @@
         <v>7</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="D22" s="2">
-        <v>7855</v>
+        <v>3520</v>
       </c>
       <c r="E22" s="2">
-        <v>4058</v>
+        <v>1935</v>
       </c>
       <c r="F22" s="2">
-        <v>2236</v>
+        <v>1200</v>
       </c>
       <c r="G22" s="2">
-        <v>1687</v>
+        <v>546</v>
       </c>
       <c r="H22" s="2">
-        <v>3923</v>
+        <v>1746</v>
       </c>
       <c r="I22" s="2">
-        <v>135</v>
+        <v>189</v>
       </c>
       <c r="J22" s="2">
-        <v>3797</v>
+        <v>1585</v>
       </c>
       <c r="K22" s="2" t="s">
         <v>3</v>
@@ -1257,28 +1281,28 @@
         <v>22</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="D23" s="2">
-        <v>3520</v>
+        <v>302</v>
       </c>
       <c r="E23" s="2">
-        <v>1935</v>
+        <v>302</v>
       </c>
       <c r="F23" s="2">
-        <v>1200</v>
+        <v>207</v>
       </c>
       <c r="G23" s="2">
-        <v>546</v>
+        <v>73</v>
       </c>
       <c r="H23" s="2">
-        <v>1746</v>
+        <v>280</v>
       </c>
       <c r="I23" s="2">
-        <v>189</v>
+        <v>22</v>
       </c>
       <c r="J23" s="2">
-        <v>1585</v>
+        <v>0</v>
       </c>
       <c r="K23" s="2" t="s">
         <v>3</v>
@@ -1292,122 +1316,89 @@
         <v>22</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D24" s="2">
-        <v>302</v>
+        <v>3218</v>
       </c>
       <c r="E24" s="2">
-        <v>302</v>
+        <v>1633</v>
       </c>
       <c r="F24" s="2">
-        <v>207</v>
+        <v>993</v>
       </c>
       <c r="G24" s="2">
-        <v>73</v>
+        <v>473</v>
       </c>
       <c r="H24" s="2">
-        <v>280</v>
+        <v>1466</v>
       </c>
       <c r="I24" s="2">
-        <v>22</v>
+        <v>167</v>
       </c>
       <c r="J24" s="2">
+        <v>1585</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="28">
+      <c r="A25" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D25" s="6">
         <v>0</v>
       </c>
-      <c r="K24" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
-      <c r="A25" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D25" s="2">
-        <v>3218</v>
-      </c>
-      <c r="E25" s="2">
-        <v>1633</v>
-      </c>
-      <c r="F25" s="2">
-        <v>993</v>
-      </c>
-      <c r="G25" s="2">
-        <v>473</v>
-      </c>
-      <c r="H25" s="2">
-        <v>1466</v>
-      </c>
-      <c r="I25" s="2">
-        <v>167</v>
-      </c>
-      <c r="J25" s="2">
-        <v>1585</v>
-      </c>
-      <c r="K25" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="33">
-      <c r="A26" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D26" s="6">
+      <c r="E25" s="6">
         <v>0</v>
       </c>
-      <c r="E26" s="6">
+      <c r="F25" s="6">
         <v>0</v>
       </c>
-      <c r="F26" s="6">
+      <c r="G25" s="6">
         <v>0</v>
       </c>
-      <c r="G26" s="6">
+      <c r="H25" s="6">
         <v>0</v>
       </c>
-      <c r="H26" s="6">
+      <c r="I25" s="6">
         <v>0</v>
       </c>
-      <c r="I26" s="6">
+      <c r="J25" s="6">
         <v>0</v>
       </c>
-      <c r="J26" s="6">
-        <v>0</v>
-      </c>
-      <c r="K26" s="6" t="s">
+      <c r="K25" s="6" t="s">
         <v>3</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="12">
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="F3:H3"/>
     <mergeCell ref="F4:H4"/>
     <mergeCell ref="A3:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K3:K7"/>
-    <mergeCell ref="J3:J7"/>
-    <mergeCell ref="I3:I7"/>
-    <mergeCell ref="B3:B7"/>
-    <mergeCell ref="E3:E7"/>
-    <mergeCell ref="D3:D7"/>
-    <mergeCell ref="C3:C7"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H7"/>
+    <mergeCell ref="K3:K6"/>
+    <mergeCell ref="J3:J6"/>
+    <mergeCell ref="I3:I6"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="E3:E6"/>
+    <mergeCell ref="D3:D6"/>
+    <mergeCell ref="C3:C6"/>
+    <mergeCell ref="H5:H6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>